--- a/mazeDump/maze26.xlsx
+++ b/mazeDump/maze26.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE817_RobotNavigation-master (7)\EE817_RobotNavigation-master\mazeLib\찌르레기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EE817_RobotNavigation-master1\EE817_RobotNavigation-master\mazeDump\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CH36" sqref="CH36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CW89" sqref="CW89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="BZ100" s="3">
-        <v>402</v>
+        <v>602</v>
       </c>
       <c r="CA100" s="8">
         <v>101</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="CV100" s="21">
-        <v>401</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -30738,5 +30738,6 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>